--- a/TTT10nhap.xlsx
+++ b/TTT10nhap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thddn-my.sharepoint.com/personal/thd_nhatminh_thddn_edu_vn/Documents/NAM HOC 2024 - 2025/01 TUYENSINH10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kieno\PycharmProjects\python-training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="253" documentId="8_{B50A6328-74F0-4488-B425-41C851E94814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7BCE7C1-10F3-4131-BED5-AED7149D5C40}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1A6DFF-1D2E-4861-ABB1-EF7B0C2E34D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FA9B165F-99F0-4C23-B1C7-8A17226979F3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FA9B165F-99F0-4C23-B1C7-8A17226979F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
 nữ=x</t>
   </si>
   <si>
-    <t>067209007917</t>
-  </si>
-  <si>
     <t>Dân tộc</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>Phạm Văn Vinh</t>
+  </si>
+  <si>
+    <t>067209007971</t>
   </si>
 </sst>
 </file>
@@ -552,10 +552,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -881,7 +877,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.2" x14ac:dyDescent="0.35"/>
@@ -923,10 +919,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="32" t="s">
         <v>27</v>
@@ -952,10 +948,10 @@
         <v>24</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>4</v>
@@ -1013,22 +1009,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="E2" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="39" t="s">
+      <c r="H2" s="39" t="s">
         <v>35</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>36</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>19</v>
@@ -1037,7 +1033,7 @@
         <v>17</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>23</v>
@@ -1049,40 +1045,40 @@
         <v>18</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P2" s="11">
         <v>9</v>
       </c>
       <c r="Q2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="X2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="Y2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="Z2" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="AA2" s="13"/>
       <c r="AB2" s="15">

--- a/TTT10nhap.xlsx
+++ b/TTT10nhap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kieno\PycharmProjects\python-training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1A6DFF-1D2E-4861-ABB1-EF7B0C2E34D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0707594B-386D-46EF-BB1E-98421F30AA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FA9B165F-99F0-4C23-B1C7-8A17226979F3}"/>
   </bookViews>
@@ -167,7 +167,7 @@
     <t>Phạm Văn Vinh</t>
   </si>
   <si>
-    <t>067209007971</t>
+    <t>067209007972</t>
   </si>
 </sst>
 </file>
@@ -877,7 +877,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.2" x14ac:dyDescent="0.35"/>
